--- a/docs/doctor.xlsx
+++ b/docs/doctor.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\is2js\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\is2js\IdeaProjects\object\doctor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F717C-C561-4981-92DB-B240E36F63C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE740E4F-5631-4B36-9B74-EE0081D47102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{30BBED63-F7C0-40C5-866E-E705D16EC134}"/>
+    <workbookView xWindow="5232" yWindow="2448" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{30BBED63-F7C0-40C5-866E-E705D16EC134}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="1" r:id="rId1"/>
     <sheet name="v2" sheetId="2" r:id="rId2"/>
+    <sheet name="develop" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="124">
   <si>
     <t>package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,15 +500,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 정책이 적용되어야하는 객체는 전략객체 policy를 생성자 주입받아 알고 있다.</t>
+    <t>createDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 정책이 적용되는 조건은 trigger메서드를 담고 있는데, policy가 내부에서 알고서 받아 조건문으로 사용한다.</t>
+    <t>Treatment(치료정보)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>createDate</t>
+    <t>PolicyApplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolicyApplierFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Director</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxPackage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectPaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 패키지 프로젝트는 front(client) + back(server) 다 짜야한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료실 프로젝트는 front(client)작업만 하면 server는 공통으로 사용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Director()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. director는 [외부]에서 기획서를 [받기기능]으로 받아서 저장하므로 안다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director.addPaper( paper )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pacakge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2가지program을 결과물로 얻는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1가지 program만 결과물로 얻는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front랭기지 + back랭기지,back서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front랭기지, frontLibrary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmer는 paper를 메서드 인자로 받아서 안다. -&gt; paper정보를 input으로 getter프로그램반환의 [제공기능]을 디렉터 내부에서 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmer는 2개의 팀을 가지고 있으며, 각각이 1개씩의 프로그램을 만들어 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. paper는 받아올때부터, 개발자란이 비어있어서 -&gt; [받기기능]을 통해 programmer를 알고서 메서드 인자로 받아와 뒤늦게 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper.setFrontProgrammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 2팀다 필요한 경우 paper.setBackEndProgrammer도 호출해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 디렉터는 받아와 가지고 있는 paper를 [하위도메인으로서 외부에서 안받고 내부에서 생성하여 섭외하는 programmer]를 안다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인에서 내부 생성/섭외 객체 = 내 하위도메인으로서, 나를fk로 보고 생성되는 내부발행객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director.runProject(  어떤ProjectPaper );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">내부에서 Programmer 와 ProjectPaper가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서로에게 정보를 제공하는 트랜잭션 관계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인데</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>둘다 인터페이스로서 구상체 종류마다 서로 다른 정보를 전달하는 상황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 디렉터는 내부생성 하위도메인 Programmer +  외부에서 받아오는 ProjectPaper를 가지고 [외부에 getter최종프로그램반환 제공기능]하며</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +683,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +724,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -614,15 +788,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -634,6 +802,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7693,13 +7876,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
+      <xdr:colOff>35859</xdr:colOff>
       <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
+      <xdr:colOff>8965</xdr:colOff>
       <xdr:row>173</xdr:row>
       <xdr:rowOff>170331</xdr:rowOff>
     </xdr:to>
@@ -7716,7 +7899,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8785412" y="39355059"/>
+          <a:off x="8776447" y="39355059"/>
           <a:ext cx="1317812" cy="170331"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -7796,6 +7979,4203 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="직선 화살표 연결선 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856D3D6A-54E0-4379-9C1D-91A0A0E0B17B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4033670" y="39844085"/>
+          <a:ext cx="0" cy="801891"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="연결선: 꺾임 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822654F8-5F3B-43D7-B554-021D12D8586C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2017060" y="39830190"/>
+          <a:ext cx="1335741" cy="1013011"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99665"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="연결선: 꺾임 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E5355A-CBCF-4348-A220-54BA2E6B325F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4657164" y="39449190"/>
+          <a:ext cx="1479177" cy="1326776"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 909"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627531</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>233082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="연결선: 꺾임 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE864C35-2DCC-448D-B019-C9885417F04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4034119" y="39220587"/>
+          <a:ext cx="1299883" cy="359934"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="연결선: 꺾임 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E55B79-634C-4C70-AE95-407FEEEF0419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5387789" y="38754425"/>
+          <a:ext cx="663387" cy="367552"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="연결선: 꺾임 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5D38B7-C45B-4041-8500-6F275203660F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3433483" y="39005436"/>
+          <a:ext cx="815787" cy="349624"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -549"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="연결선: 꺾임 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB3E57-84CF-4C79-A87B-69B14016288E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3406589" y="38476518"/>
+          <a:ext cx="1299884" cy="161364"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>262592</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>275292</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="연결선: 꺾임 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4AD1B2-6578-49AD-9366-73F58AE459E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1819836" y="39121976"/>
+          <a:ext cx="932329" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="연결선: 꺾임 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FFF04B-8498-46C2-98DA-14BF95DCC490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2680448" y="38987505"/>
+          <a:ext cx="1021977" cy="376518"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663390</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="연결선: 꺾임 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B861B60B-9921-4395-9CB3-1833EBE2D17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1801908" y="39372987"/>
+          <a:ext cx="2223246" cy="878543"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 403"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="연결선: 꺾임 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32290657-BC32-4125-8C32-1F8DD5195EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4733365" y="39480565"/>
+          <a:ext cx="2662517" cy="1425388"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86700"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="연결선: 꺾임 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6629B58C-EBDB-42EB-9A82-9E939EC48B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="40968706"/>
+          <a:ext cx="2662518" cy="143435"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="연결선: 꺾임 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31470E90-679E-4625-9F0B-17B63C498409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8776447" y="39355059"/>
+          <a:ext cx="1317812" cy="170331"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99660"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666003</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>221504</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="연결선: 꺾임 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB79BED-AB28-4E66-80A3-62F420B6AFD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9953439" y="38984893"/>
+          <a:ext cx="248398" cy="2612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>35218</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>129990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="연결선: 꺾임 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADA41D2-4DD2-42CB-B949-D093044B6E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10833847" y="41082686"/>
+          <a:ext cx="1336382" cy="347704"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98874"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="직선 화살표 연결선 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D694ACD5-D1DD-4CA0-AC80-CD05E677CCB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4046476" y="42009061"/>
+          <a:ext cx="0" cy="782682"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="연결선: 꺾임 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4AFF00-CF37-4935-8C52-9B8DBE7C837B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2024744" y="41995166"/>
+          <a:ext cx="1338302" cy="989319"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99665"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="연결선: 꺾임 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D3E760-244C-4780-B31E-FE53EF230EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4693984" y="41604240"/>
+          <a:ext cx="1446520" cy="1331900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 909"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627531</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>233082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="연결선: 꺾임 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4F3B34-5F1D-40AE-84DB-F7508D23CF66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4049487" y="41399011"/>
+          <a:ext cx="1302444" cy="355451"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="연결선: 꺾임 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE261C4-43B0-43FB-AF5A-9674C6D49AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5408279" y="40941813"/>
+          <a:ext cx="665950" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="연결선: 꺾임 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703A4839-5033-4773-8DB8-3F0E59EFF74D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3455254" y="41183859"/>
+          <a:ext cx="797858" cy="349624"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -549"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="연결선: 꺾임 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED5EDDD-95B2-4D54-91A9-B9D71BE8842B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3419395" y="40668389"/>
+          <a:ext cx="1305007" cy="161364"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>262592</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>275292</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="연결선: 꺾임 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADCDC88-B8D1-47D8-9F4C-0D9B771F5CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1836485" y="41300399"/>
+          <a:ext cx="914400" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="연결선: 꺾임 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F443F6-CCD2-4DE9-A98E-2F9BC43B820B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2700939" y="41164647"/>
+          <a:ext cx="1004048" cy="379079"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663390</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="연결선: 꺾임 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F5A51B-64FF-4219-9989-0E26C44A3478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1833924" y="41536043"/>
+          <a:ext cx="2177142" cy="881104"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 403"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="연결선: 꺾임 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2F0E25-BFA0-4DD5-A268-2C5815206672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4751294" y="41654506"/>
+          <a:ext cx="2672763" cy="1392731"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86700"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="연결선: 꺾임 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09A9743-0364-492D-9C14-E3BBFAC5C7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4742329" y="43105508"/>
+          <a:ext cx="2670203" cy="143435"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="연결선: 꺾임 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAEC013-08CC-4A1E-B736-58D287CDFDEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8809745" y="41529000"/>
+          <a:ext cx="1322934" cy="170331"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99660"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666003</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>221504</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="연결선: 꺾임 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614231A6-9B3B-4892-A7C3-28B1715A8824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9991539" y="41170040"/>
+          <a:ext cx="243916" cy="2612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76777"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>35218</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>129990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="연결선: 꺾임 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6746C355-A6EF-43B3-853E-69F04727AD8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10833847" y="41082686"/>
+          <a:ext cx="1336382" cy="347704"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98874"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666003</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>221504</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="연결선: 꺾임 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55CAD4A-DAC1-2365-7FD6-5B1756EBCBA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="11902401" y="44675240"/>
+          <a:ext cx="243916" cy="2612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76777"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17632</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>181707</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>88960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="연결선: 꺾임 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0802DA97-59EC-1C86-4CB9-468A44B6FC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10709078" y="44582862"/>
+          <a:ext cx="832291" cy="774760"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="직선 화살표 연결선 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE39558-D29F-4F18-8778-A13DA4002691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4024705" y="45773341"/>
+          <a:ext cx="0" cy="792479"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="연결선: 꺾임 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0BC415-1A2D-46AD-836F-15A1980D45F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2011681" y="45759446"/>
+          <a:ext cx="1333948" cy="999116"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99665"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="연결선: 꺾임 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54A1738-6B3A-4C71-90C4-F71FC98D9554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4654251" y="45377773"/>
+          <a:ext cx="1456317" cy="1323191"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 909"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>627531</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>233082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="연결선: 꺾임 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8B65CA-BD3C-40FD-A478-F7FCD358BE95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4023361" y="45163291"/>
+          <a:ext cx="1298090" cy="355451"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="연결선: 꺾임 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1680BBF5-CE69-4147-B47C-5BA3E782B2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5373445" y="44706093"/>
+          <a:ext cx="661595" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="연결선: 꺾임 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA477D73-EAE4-4D2A-BF7F-870F00D460B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3433483" y="44948139"/>
+          <a:ext cx="797858" cy="349624"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -549"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="연결선: 꺾임 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40572D3-EC14-433E-B731-5D5C3A5504B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3397624" y="44432669"/>
+          <a:ext cx="1296298" cy="161364"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>262592</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275292</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="연결선: 꺾임 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A588A2-B02C-4166-9145-F4C41CBD0C6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1823422" y="45064679"/>
+          <a:ext cx="914400" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="연결선: 꺾임 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E936121B-84CA-464F-8332-846F6BF58F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2681345" y="44931104"/>
+          <a:ext cx="1004048" cy="374725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663390</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="연결선: 꺾임 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B1DD71-A1EE-43BA-8A3A-1BFD7DAFAE52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1813785" y="45307399"/>
+          <a:ext cx="2186939" cy="876750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 403"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="연결선: 꺾임 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AB764F-6DDE-4E12-853C-C96916540744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4720814" y="45418786"/>
+          <a:ext cx="2655346" cy="1402528"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86700"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="연결선: 꺾임 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE28D9A-C4F8-450B-B870-9F4C523DD2AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4711849" y="46879585"/>
+          <a:ext cx="2657140" cy="143435"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="연결선: 꺾임 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6F3435-B503-4E60-B293-62DEF2D87C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8753139" y="45293280"/>
+          <a:ext cx="1314226" cy="170331"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99660"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666003</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221504</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="연결선: 꺾임 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6E1648-4DC0-4CA6-AA03-6B2D64CD2174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9930579" y="44934320"/>
+          <a:ext cx="243916" cy="2612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76777"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>35218</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="연결선: 꺾임 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2D6D37-39CD-4F4F-9862-0E8D6275D6E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10764178" y="44846966"/>
+          <a:ext cx="1327674" cy="347704"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98874"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666003</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>221504</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="연결선: 꺾임 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC14AF1-E8D5-498A-B9F0-904B6F3CF301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="11942259" y="44477120"/>
+          <a:ext cx="243916" cy="2612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76777"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17632</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>181707</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="연결선: 꺾임 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883FDEAD-F6A2-48D4-8BDF-B7FB6F9EFCA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10746592" y="44378880"/>
+          <a:ext cx="834635" cy="774760"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAFAE94-3ADC-8FFE-7826-F7813E5407D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="4310743"/>
+          <a:ext cx="10885" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CA1A72-4878-4A42-9E65-BBC333B74F30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="4310743"/>
+          <a:ext cx="10885" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="직선 화살표 연결선 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C97C4A-27A9-E2EF-E3CE-C85754ED3B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746171" y="6977743"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C1390A-CEEE-3AF7-7CE5-96C4F81D572D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="6977743"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98185B46-91E2-4B94-ADB8-23D0E89346BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="6313714"/>
+          <a:ext cx="10885" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 화살표 연결선 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F73BDDA-DA2E-4311-A1D4-049A2DE10C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746171" y="6977743"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781F3FA4-CC44-4BAE-931A-62A0DC38A6EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="6977743"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="직선 화살표 연결선 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9340A4-BB02-D965-37B9-7642128FEAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="8392886"/>
+          <a:ext cx="2677886" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE4D155-D213-CAB6-561F-7284D5B180D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9165771" y="9209315"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0411EACC-65D9-9C8A-8EA9-4F6E211387F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9808029" y="9209315"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="직선 화살표 연결선 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736F9F00-175F-B749-F901-4458EECB3F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="9122229"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="직선 화살표 연결선 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A084E7D-D974-4312-860E-0CC41E72EC5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="8556171"/>
+          <a:ext cx="10885" cy="370115"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="직선 화살표 연결선 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11EBA1AC-3015-46E0-84D5-3A0E2C262926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746171" y="9220201"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="직선 화살표 연결선 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715C65F9-C0CE-41C4-A980-F839D0DF61DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="9220201"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C400161A-3965-488B-81CA-1E56406AC409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="8392886"/>
+          <a:ext cx="2677886" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="직선 화살표 연결선 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221A7666-DEAB-4F55-8ACA-ECC12486DB59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9165771" y="9209315"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="직선 화살표 연결선 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927304EC-2879-410A-AA42-A6732BD54142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9808029" y="9209315"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="직선 화살표 연결선 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2B551F-70D6-4877-A5C9-356091AFFEC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="9122229"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="직선 화살표 연결선 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE115E9-6222-70B7-777A-CEC14021D9D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="11941629"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="직선 화살표 연결선 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95EA87E-F2F3-456F-823F-9235362E90A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="11451771"/>
+          <a:ext cx="10885" cy="370115"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1B8031-2BFD-492B-9AB7-5FEE8139D89E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746171" y="12115801"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="직선 화살표 연결선 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09420C51-3A0D-458F-84A1-63441026915D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="12115801"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="직선 화살표 연결선 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B98C07-4335-4114-9919-538A49B7C352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="11288486"/>
+          <a:ext cx="2677886" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="직선 화살표 연결선 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44772716-53F4-480F-A95C-606BE6CE677D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9165771" y="12104915"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="직선 화살표 연결선 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDCC49A-1D7B-4701-B4DE-7297EF617065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9808029" y="12104915"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="직선 화살표 연결선 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099C8DE0-5F06-4FCD-B083-BD621FC7C6FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="12017829"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="직선 화살표 연결선 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E66DCE-CDA7-4BC4-B6EF-64E2F343B40A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="11941629"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="사각형: 둥근 모서리 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3573A45A-A054-2A63-B93C-0B0C41CB3510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3145971" y="14575971"/>
+          <a:ext cx="8382000" cy="1208315"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8104,105 +12484,105 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="12" spans="8:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="8:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H13" s="1" t="s">
+    <row r="12" spans="8:13" ht="18" thickBot="1"/>
+    <row r="13" spans="8:13" ht="18" thickBot="1">
+      <c r="H13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="K13" s="1" t="s">
+      <c r="I13" s="6"/>
+      <c r="K13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.4">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="15" spans="8:13">
       <c r="M15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="8:13">
       <c r="M16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K18" s="1" t="s">
+    <row r="17" spans="8:15" ht="18" thickBot="1"/>
+    <row r="18" spans="8:15" ht="18" thickBot="1">
+      <c r="K18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="25" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N26" s="1" t="s">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="25" spans="8:15" ht="18" thickBot="1"/>
+    <row r="26" spans="8:15" ht="18" thickBot="1">
+      <c r="N26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H28" s="1" t="s">
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="8:15" ht="18" thickBot="1"/>
+    <row r="28" spans="8:15" ht="18" thickBot="1">
+      <c r="H28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="K28" s="1" t="s">
+      <c r="I28" s="6"/>
+      <c r="K28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="31" spans="8:15" x14ac:dyDescent="0.4">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="31" spans="8:15">
       <c r="O31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="8:15" ht="18" thickBot="1">
       <c r="O32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K33" s="1" t="s">
+    <row r="33" spans="8:15" ht="18" thickBot="1">
+      <c r="K33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="39" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L33" s="6"/>
+    </row>
+    <row r="39" spans="8:15" ht="18" thickBot="1">
       <c r="L39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N40" s="1" t="s">
+    <row r="40" spans="8:15" ht="18" thickBot="1">
+      <c r="N40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H42" s="1" t="s">
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="8:15" ht="18" thickBot="1"/>
+    <row r="42" spans="8:15" ht="18" thickBot="1">
+      <c r="H42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="K42" s="1" t="s">
+      <c r="I42" s="6"/>
+      <c r="K42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="46" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K47" s="1" t="s">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="46" spans="8:15" ht="18" thickBot="1"/>
+    <row r="47" spans="8:15" ht="18" thickBot="1">
+      <c r="K47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.4">
+      <c r="L47" s="6"/>
+    </row>
+    <row r="49" spans="8:15">
       <c r="H49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="8:15" ht="18" thickBot="1">
       <c r="H50" t="s">
         <v>15</v>
       </c>
@@ -8210,252 +12590,252 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L51" s="1" t="s">
+    <row r="51" spans="8:15" ht="18" thickBot="1">
+      <c r="L51" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" s="6"/>
       <c r="O51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="53" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N53" s="1" t="s">
+    <row r="52" spans="8:15" ht="18" thickBot="1"/>
+    <row r="53" spans="8:15" ht="18" thickBot="1">
+      <c r="N53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H55" s="1" t="s">
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="8:15" ht="18" thickBot="1"/>
+    <row r="55" spans="8:15" ht="18" thickBot="1">
+      <c r="H55" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="2"/>
-      <c r="K55" s="1" t="s">
+      <c r="I55" s="6"/>
+      <c r="K55" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="59" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="60" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K60" s="1" t="s">
+      <c r="L55" s="6"/>
+    </row>
+    <row r="59" spans="8:15" ht="18" thickBot="1"/>
+    <row r="60" spans="8:15" ht="18" thickBot="1">
+      <c r="K60" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="65" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="L60" s="6"/>
+    </row>
+    <row r="65" spans="8:18">
       <c r="M65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="8:18" ht="18" thickBot="1">
       <c r="M66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I67" s="1" t="s">
+    <row r="67" spans="8:18" ht="18" thickBot="1">
+      <c r="I67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="6"/>
       <c r="Q67" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L68" s="1" t="s">
+    <row r="68" spans="8:18" ht="18" thickBot="1">
+      <c r="L68" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M68" s="2"/>
+      <c r="M68" s="6"/>
       <c r="Q68" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="8:18" ht="18" thickBot="1">
       <c r="R69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N70" s="1" t="s">
+    <row r="70" spans="8:18" ht="18" thickBot="1">
+      <c r="N70" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O70" s="2"/>
+      <c r="O70" s="6"/>
       <c r="R70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="8:18" ht="18" thickBot="1">
       <c r="R71" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H72" s="1" t="s">
+    <row r="72" spans="8:18" ht="18" thickBot="1">
+      <c r="H72" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="2"/>
-      <c r="K72" s="1" t="s">
+      <c r="I72" s="6"/>
+      <c r="K72" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="2"/>
+      <c r="L72" s="6"/>
       <c r="R72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="8:18" x14ac:dyDescent="0.4">
+    <row r="73" spans="8:18">
       <c r="R73" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K77" s="1" t="s">
+    <row r="76" spans="8:18" ht="18" thickBot="1"/>
+    <row r="77" spans="8:18" ht="18" thickBot="1">
+      <c r="K77" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="83" spans="8:15" x14ac:dyDescent="0.4">
+      <c r="L77" s="6"/>
+    </row>
+    <row r="83" spans="8:15">
       <c r="I83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="8:15" ht="18" thickBot="1">
       <c r="I84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I85" s="1" t="s">
+    <row r="85" spans="8:15" ht="18" thickBot="1">
+      <c r="I85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L86" s="1" t="s">
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="8:15" ht="18" thickBot="1">
+      <c r="L86" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="88" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N88" s="1" t="s">
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="8:15" ht="18" thickBot="1"/>
+    <row r="88" spans="8:15" ht="18" thickBot="1">
+      <c r="N88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O88" s="2"/>
-    </row>
-    <row r="89" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="90" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H90" s="1" t="s">
+      <c r="O88" s="6"/>
+    </row>
+    <row r="89" spans="8:15" ht="18" thickBot="1"/>
+    <row r="90" spans="8:15" ht="18" thickBot="1">
+      <c r="H90" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="2"/>
-      <c r="K90" s="1" t="s">
+      <c r="I90" s="6"/>
+      <c r="K90" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L90" s="2"/>
-    </row>
-    <row r="94" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="95" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K95" s="1" t="s">
+      <c r="L90" s="6"/>
+    </row>
+    <row r="94" spans="8:15" ht="18" thickBot="1"/>
+    <row r="95" spans="8:15" ht="18" thickBot="1">
+      <c r="K95" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L95" s="2"/>
-    </row>
-    <row r="102" spans="8:15" x14ac:dyDescent="0.4">
+      <c r="L95" s="6"/>
+    </row>
+    <row r="102" spans="8:15">
       <c r="I102" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="8:15" ht="18" thickBot="1">
       <c r="I103" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I104" s="1" t="s">
+    <row r="104" spans="8:15" ht="18" thickBot="1">
+      <c r="I104" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L105" s="1" t="s">
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="8:15" ht="18" thickBot="1">
+      <c r="L105" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="107" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N107" s="1" t="s">
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="8:15" ht="18" thickBot="1"/>
+    <row r="107" spans="8:15" ht="18" thickBot="1">
+      <c r="N107" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O107" s="2"/>
-    </row>
-    <row r="108" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="109" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H109" s="1" t="s">
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="8:15" ht="18" thickBot="1"/>
+    <row r="109" spans="8:15" ht="18" thickBot="1">
+      <c r="H109" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I109" s="2"/>
-      <c r="K109" s="1" t="s">
+      <c r="I109" s="6"/>
+      <c r="K109" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L109" s="2"/>
-    </row>
-    <row r="113" spans="11:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="114" spans="11:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K114" s="1" t="s">
+      <c r="L109" s="6"/>
+    </row>
+    <row r="113" spans="11:12" ht="18" thickBot="1"/>
+    <row r="114" spans="11:12" ht="18" thickBot="1">
+      <c r="K114" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="11:12">
       <c r="K115" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="11:12">
       <c r="K116" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="L105:M105"/>
     <mergeCell ref="N107:O107"/>
     <mergeCell ref="H109:I109"/>
     <mergeCell ref="K109:L109"/>
     <mergeCell ref="K114:L114"/>
-    <mergeCell ref="L86:M86"/>
     <mergeCell ref="N88:O88"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="K90:L90"/>
     <mergeCell ref="K95:L95"/>
+    <mergeCell ref="L105:M105"/>
     <mergeCell ref="I104:J104"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L68:M68"/>
     <mergeCell ref="N70:O70"/>
     <mergeCell ref="H72:I72"/>
     <mergeCell ref="K72:L72"/>
     <mergeCell ref="K77:L77"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N53:O53"/>
     <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N53:O53"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K60:L60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8466,94 +12846,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB51B26-4DFE-4B26-AC82-930ED7FAC78C}">
-  <dimension ref="B3:P181"/>
+  <dimension ref="B3:S210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A195" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S210" sqref="C197:S210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="3" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E4" s="1" t="s">
+    <row r="3" spans="4:15" ht="18" thickBot="1"/>
+    <row r="4" spans="4:15" ht="18" thickBot="1">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H5" s="1" t="s">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="4:15" ht="18" thickBot="1">
+      <c r="H5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J7" s="1" t="s">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="4:15" ht="18" thickBot="1"/>
+    <row r="7" spans="4:15" ht="18" thickBot="1">
+      <c r="J7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M8" s="1" t="s">
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="4:15" ht="18" thickBot="1">
+      <c r="M8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="1" t="s">
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="4:15" ht="18" thickBot="1">
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="6"/>
+      <c r="G9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="6"/>
       <c r="N9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:15">
       <c r="N10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:15">
       <c r="N11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:15">
       <c r="N12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" ht="18" thickBot="1"/>
+    <row r="14" spans="4:15" ht="18" thickBot="1">
+      <c r="G14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="6"/>
       <c r="N14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M15" s="1" t="s">
+    <row r="15" spans="4:15" ht="18" thickBot="1">
+      <c r="M15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" s="6"/>
       <c r="O15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.4">
-      <c r="I16" s="3"/>
+    <row r="16" spans="4:15">
+      <c r="I16" s="1"/>
       <c r="N16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>47</v>
       </c>
@@ -8564,7 +12944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15">
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -8572,538 +12952,656 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="N20" s="4" t="s">
+    <row r="19" spans="2:15">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="N20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="N21" s="4" t="s">
+    <row r="21" spans="2:15">
+      <c r="N21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="N22" s="5" t="s">
+    <row r="22" spans="2:15">
+      <c r="N22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="N23" s="5" t="s">
+    <row r="23" spans="2:15">
+      <c r="N23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D46" s="1" t="s">
+    <row r="45" spans="4:8" ht="18" thickBot="1"/>
+    <row r="46" spans="4:8" ht="18" thickBot="1">
+      <c r="D46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G47" s="1" t="s">
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="4:8" ht="18" thickBot="1">
+      <c r="G47" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="49" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I49" s="1" t="s">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="4:8" ht="18" thickBot="1"/>
+    <row r="49" spans="3:13" ht="18" thickBot="1">
+      <c r="I49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L50" s="1" t="s">
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="3:13" ht="18" thickBot="1">
+      <c r="L50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="1" t="s">
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="3:13" ht="18" thickBot="1">
+      <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="F51" s="1" t="s">
+      <c r="D51" s="6"/>
+      <c r="F51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="55" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="56" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F56" s="1" t="s">
+      <c r="G51" s="6"/>
+    </row>
+    <row r="55" spans="3:13" ht="18" thickBot="1"/>
+    <row r="56" spans="3:13" ht="18" thickBot="1">
+      <c r="F56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L57" s="1" t="s">
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="3:13" ht="18" thickBot="1">
+      <c r="L57" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M57" s="6"/>
+    </row>
+    <row r="59" spans="3:13">
       <c r="D59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:13">
       <c r="D60" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:13">
       <c r="D61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:13">
       <c r="D62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:13">
       <c r="D63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="70" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D70" s="1" t="s">
+    <row r="69" spans="3:13" ht="18" thickBot="1"/>
+    <row r="70" spans="3:13" ht="18" thickBot="1">
+      <c r="D70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G71" s="1" t="s">
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="3:13" ht="18" thickBot="1">
+      <c r="G71" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="73" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I73" s="1" t="s">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="3:13" ht="18" thickBot="1"/>
+    <row r="73" spans="3:13" ht="18" thickBot="1">
+      <c r="I73" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L74" s="1" t="s">
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="3:13" ht="18" thickBot="1">
+      <c r="L74" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C75" s="1" t="s">
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="3:13" ht="18" thickBot="1">
+      <c r="C75" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="F75" s="1" t="s">
+      <c r="D75" s="6"/>
+      <c r="F75" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="79" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F80" s="1" t="s">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="79" spans="3:13" ht="18" thickBot="1"/>
+    <row r="80" spans="3:13" ht="18" thickBot="1">
+      <c r="F80" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="4:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L81" s="1" t="s">
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="4:13" ht="18" thickBot="1">
+      <c r="L81" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="M81" s="6"/>
+    </row>
+    <row r="83" spans="4:13">
       <c r="D83" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="4:13">
       <c r="D84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="4:13">
       <c r="D85" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="4:13">
       <c r="D86" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="4:13">
       <c r="E87" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="4:13">
       <c r="E88" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="4:13">
       <c r="E89" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="4:13">
       <c r="E90" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="4:13">
       <c r="E91" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="4:13">
       <c r="E92" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="4:13">
       <c r="E93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="100" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D100" s="1" t="s">
+    <row r="99" spans="3:13" ht="18" thickBot="1"/>
+    <row r="100" spans="3:13" ht="18" thickBot="1">
+      <c r="D100" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G101" s="1" t="s">
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="3:13" ht="18" thickBot="1">
+      <c r="G101" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="103" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I103" s="1" t="s">
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="3:13" ht="18" thickBot="1"/>
+    <row r="103" spans="3:13" ht="18" thickBot="1">
+      <c r="I103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="2"/>
-    </row>
-    <row r="104" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L104" s="1" t="s">
+      <c r="J103" s="6"/>
+    </row>
+    <row r="104" spans="3:13" ht="18" thickBot="1">
+      <c r="L104" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C105" s="1" t="s">
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="3:13" ht="18" thickBot="1">
+      <c r="C105" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="F105" s="1" t="s">
+      <c r="D105" s="6"/>
+      <c r="F105" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="109" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="110" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F110" s="1" t="s">
+      <c r="G105" s="6"/>
+    </row>
+    <row r="109" spans="3:13" ht="18" thickBot="1"/>
+    <row r="110" spans="3:13" ht="18" thickBot="1">
+      <c r="F110" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M111" s="2"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="3:13" ht="18" thickBot="1">
+      <c r="L111" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="114" spans="3:4">
       <c r="C114" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="3:4">
       <c r="C115" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="3:4">
       <c r="C116" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="3:4">
       <c r="D117" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="3:4">
       <c r="D118" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="3:4">
       <c r="D119" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="3:4">
       <c r="D120" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="3:4">
       <c r="D121" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="3:4">
       <c r="D122" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="3:4">
       <c r="C123" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="3:4">
       <c r="D124" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="129" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D129" s="1" t="s">
+    <row r="128" spans="3:4" ht="18" thickBot="1"/>
+    <row r="129" spans="3:13" ht="18" thickBot="1">
+      <c r="D129" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G130" s="1" t="s">
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="3:13" ht="18" thickBot="1">
+      <c r="G130" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="132" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I132" s="1" t="s">
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="3:13" ht="18" thickBot="1"/>
+    <row r="132" spans="3:13" ht="18" thickBot="1">
+      <c r="I132" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J132" s="2"/>
-    </row>
-    <row r="133" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L133" s="1" t="s">
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="3:13" ht="18" thickBot="1">
+      <c r="L133" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M133" s="2"/>
-    </row>
-    <row r="134" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C134" s="1" t="s">
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="3:13" ht="18" thickBot="1">
+      <c r="C134" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="2"/>
-      <c r="F134" s="1" t="s">
+      <c r="D134" s="6"/>
+      <c r="F134" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="138" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="139" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F139" s="1" t="s">
+      <c r="G134" s="6"/>
+    </row>
+    <row r="138" spans="3:13" ht="18" thickBot="1"/>
+    <row r="139" spans="3:13" ht="18" thickBot="1">
+      <c r="F139" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L140" s="1" t="s">
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="3:13" ht="18" thickBot="1">
+      <c r="L140" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M140" s="2"/>
-    </row>
-    <row r="141" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M140" s="6"/>
+    </row>
+    <row r="141" spans="3:13">
       <c r="C141" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="142" spans="3:13">
       <c r="C142" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="143" spans="3:13">
       <c r="D143" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="144" spans="3:13">
       <c r="C144" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="145" spans="3:13">
       <c r="D145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="149" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D149" s="1" t="s">
+    <row r="148" spans="3:13" ht="18" thickBot="1"/>
+    <row r="149" spans="3:13" ht="18" thickBot="1">
+      <c r="D149" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G150" s="1" t="s">
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="3:13" ht="18" thickBot="1">
+      <c r="G150" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H150" s="2"/>
-    </row>
-    <row r="151" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="152" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I152" s="1" t="s">
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="3:13" ht="18" thickBot="1"/>
+    <row r="152" spans="3:13" ht="18" thickBot="1">
+      <c r="I152" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J152" s="2"/>
-    </row>
-    <row r="153" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L153" s="1" t="s">
+      <c r="J152" s="6"/>
+    </row>
+    <row r="153" spans="3:13" ht="18" thickBot="1">
+      <c r="L153" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M153" s="2"/>
-    </row>
-    <row r="154" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C154" s="1" t="s">
+      <c r="M153" s="6"/>
+    </row>
+    <row r="154" spans="3:13" ht="18" thickBot="1">
+      <c r="C154" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D154" s="2"/>
-      <c r="F154" s="1" t="s">
+      <c r="D154" s="6"/>
+      <c r="F154" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G154" s="2"/>
-    </row>
-    <row r="158" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="159" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F159" s="1" t="s">
+      <c r="G154" s="6"/>
+    </row>
+    <row r="158" spans="3:13" ht="18" thickBot="1"/>
+    <row r="159" spans="3:13" ht="18" thickBot="1">
+      <c r="F159" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G159" s="2"/>
-    </row>
-    <row r="160" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L160" s="1" t="s">
+      <c r="G159" s="6"/>
+    </row>
+    <row r="160" spans="3:13" ht="18" thickBot="1">
+      <c r="L160" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M160" s="2"/>
-    </row>
-    <row r="161" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="M160" s="6"/>
+    </row>
+    <row r="161" spans="3:16">
       <c r="C161" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="162" spans="3:16">
       <c r="C162" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="163" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="163" spans="3:16">
       <c r="D163" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="164" spans="3:16">
       <c r="D164" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="165" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="165" spans="3:16">
       <c r="E165" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="166" spans="3:16">
       <c r="F166" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="167" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:16">
       <c r="F167" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="169" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="170" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D170" s="1" t="s">
+    <row r="169" spans="3:16" ht="18" thickBot="1"/>
+    <row r="170" spans="3:16" ht="18" thickBot="1">
+      <c r="D170" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G171" s="1" t="s">
+      <c r="E170" s="6"/>
+    </row>
+    <row r="171" spans="3:16" ht="18" thickBot="1">
+      <c r="G171" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H171" s="2"/>
-      <c r="O171" s="1" t="s">
+      <c r="H171" s="6"/>
+      <c r="O171" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P171" s="2"/>
-    </row>
-    <row r="172" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="173" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I173" s="1" t="s">
+      <c r="P171" s="6"/>
+    </row>
+    <row r="172" spans="3:16" ht="18" thickBot="1"/>
+    <row r="173" spans="3:16" ht="18" thickBot="1">
+      <c r="I173" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J173" s="2"/>
-      <c r="O173" s="1" t="s">
+      <c r="J173" s="6"/>
+      <c r="O173" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P173" s="2"/>
-    </row>
-    <row r="174" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L174" s="1" t="s">
+      <c r="P173" s="6"/>
+    </row>
+    <row r="174" spans="3:16" ht="18" thickBot="1">
+      <c r="L174" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M174" s="2"/>
-    </row>
-    <row r="175" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C175" s="1" t="s">
+      <c r="M174" s="6"/>
+    </row>
+    <row r="175" spans="3:16" ht="18" thickBot="1">
+      <c r="C175" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D175" s="2"/>
-      <c r="F175" s="1" t="s">
+      <c r="D175" s="6"/>
+      <c r="F175" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G175" s="2"/>
-    </row>
-    <row r="176" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="N176" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="177" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="N177" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="179" spans="6:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="180" spans="6:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F180" s="1" t="s">
+      <c r="G175" s="6"/>
+    </row>
+    <row r="179" spans="3:19" ht="18" thickBot="1"/>
+    <row r="180" spans="3:19" ht="18" thickBot="1">
+      <c r="F180" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G180" s="2"/>
-    </row>
-    <row r="181" spans="6:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L181" s="1" t="s">
+      <c r="G180" s="6"/>
+    </row>
+    <row r="181" spans="3:19" ht="18" thickBot="1">
+      <c r="L181" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M181" s="2"/>
+      <c r="M181" s="6"/>
+    </row>
+    <row r="183" spans="3:19" ht="18" thickBot="1"/>
+    <row r="184" spans="3:19" ht="18" thickBot="1">
+      <c r="D184" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" spans="3:19" ht="18" thickBot="1">
+      <c r="G185" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H185" s="6"/>
+      <c r="O185" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P185" s="6"/>
+      <c r="R185" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S185" s="6"/>
+    </row>
+    <row r="186" spans="3:19" ht="18" thickBot="1"/>
+    <row r="187" spans="3:19" ht="18" thickBot="1">
+      <c r="I187" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J187" s="6"/>
+      <c r="O187" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P187" s="6"/>
+    </row>
+    <row r="188" spans="3:19" ht="18" thickBot="1">
+      <c r="L188" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M188" s="6"/>
+    </row>
+    <row r="189" spans="3:19" ht="18" thickBot="1">
+      <c r="C189" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="6"/>
+      <c r="F189" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G189" s="6"/>
+    </row>
+    <row r="193" spans="3:19" ht="18" thickBot="1"/>
+    <row r="194" spans="3:19" ht="18" thickBot="1">
+      <c r="F194" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="6"/>
+    </row>
+    <row r="195" spans="3:19" ht="18" thickBot="1">
+      <c r="L195" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M195" s="6"/>
+    </row>
+    <row r="197" spans="3:19" ht="18" thickBot="1"/>
+    <row r="198" spans="3:19" ht="18" thickBot="1">
+      <c r="R198" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S198" s="6"/>
+    </row>
+    <row r="199" spans="3:19" ht="18" thickBot="1">
+      <c r="D199" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" spans="3:19" ht="18" thickBot="1">
+      <c r="G200" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H200" s="6"/>
+      <c r="O200" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P200" s="6"/>
+      <c r="R200" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S200" s="6"/>
+    </row>
+    <row r="201" spans="3:19" ht="18" thickBot="1"/>
+    <row r="202" spans="3:19" ht="18" thickBot="1">
+      <c r="I202" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J202" s="6"/>
+      <c r="O202" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P202" s="6"/>
+    </row>
+    <row r="203" spans="3:19" ht="18" thickBot="1">
+      <c r="L203" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M203" s="6"/>
+    </row>
+    <row r="204" spans="3:19" ht="18" thickBot="1">
+      <c r="C204" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="6"/>
+      <c r="F204" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G204" s="6"/>
+    </row>
+    <row r="208" spans="3:19" ht="18" thickBot="1"/>
+    <row r="209" spans="6:13" ht="18" thickBot="1">
+      <c r="F209" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G209" s="6"/>
+    </row>
+    <row r="210" spans="6:13" ht="18" thickBot="1">
+      <c r="L210" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M210" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="81">
     <mergeCell ref="F180:G180"/>
     <mergeCell ref="L181:M181"/>
     <mergeCell ref="O173:P173"/>
@@ -9114,11 +13612,6 @@
     <mergeCell ref="L174:M174"/>
     <mergeCell ref="C175:D175"/>
     <mergeCell ref="F175:G175"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F159:G159"/>
     <mergeCell ref="L160:M160"/>
     <mergeCell ref="C134:D134"/>
     <mergeCell ref="F134:G134"/>
@@ -9126,11 +13619,11 @@
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="G150:H150"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F159:G159"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="D100:E100"/>
@@ -9139,11 +13632,11 @@
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="C105:D105"/>
     <mergeCell ref="F105:G105"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I132:J132"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="C51:D51"/>
@@ -9151,17 +13644,410 @@
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="I49:J49"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="O185:P185"/>
+    <mergeCell ref="I187:J187"/>
+    <mergeCell ref="O187:P187"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="R185:S185"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="R200:S200"/>
+    <mergeCell ref="L188:M188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="L195:M195"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="L210:M210"/>
+    <mergeCell ref="R198:S198"/>
+    <mergeCell ref="I202:J202"/>
+    <mergeCell ref="O202:P202"/>
+    <mergeCell ref="L203:M203"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B10D1B8-D54B-4833-A6DD-E681E2374463}">
+  <dimension ref="D3:V69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="3" spans="5:21" ht="18" thickBot="1"/>
+    <row r="4" spans="5:21" ht="18" thickBot="1">
+      <c r="T4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="5:21" ht="18" thickBot="1">
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="5:21" ht="18" thickBot="1">
+      <c r="I6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="Q6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="T6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="5:21" ht="18" thickBot="1"/>
+    <row r="8" spans="5:21" ht="18" thickBot="1">
+      <c r="K8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="Q8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="5:21" ht="18" thickBot="1">
+      <c r="N9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="5:21" ht="18" thickBot="1">
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="14" spans="5:21" ht="18" thickBot="1"/>
+    <row r="15" spans="5:21" ht="18" thickBot="1">
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="5:21" ht="18" thickBot="1">
+      <c r="N16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="18" spans="8:12" ht="18" thickBot="1"/>
+    <row r="19" spans="8:12" ht="18" thickBot="1">
+      <c r="H19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="8:12">
+      <c r="J20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" ht="18" thickBot="1">
+      <c r="L21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" ht="18" thickBot="1">
+      <c r="H22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="L22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" ht="18" thickBot="1"/>
+    <row r="28" spans="8:12" ht="18" thickBot="1">
+      <c r="H28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="30" spans="8:12" ht="18" thickBot="1"/>
+    <row r="31" spans="8:12" ht="18" thickBot="1">
+      <c r="H31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="8:12" ht="18" thickBot="1"/>
+    <row r="33" spans="4:18" ht="18" thickBot="1">
+      <c r="E33" s="7"/>
+      <c r="F33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="4:18">
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18">
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="L35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18">
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" ht="18" thickBot="1">
+      <c r="K37" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" ht="18" thickBot="1">
+      <c r="H38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="K38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18">
+      <c r="N39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" ht="18" thickBot="1"/>
+    <row r="41" spans="4:18" ht="18" thickBot="1">
+      <c r="H41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="N41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="4:18" ht="18" thickBot="1">
+      <c r="R42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" ht="18" thickBot="1">
+      <c r="F43" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="M43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N43" s="6"/>
+      <c r="P43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="50" spans="6:22" ht="18" thickBot="1"/>
+    <row r="51" spans="6:22" ht="18" thickBot="1">
+      <c r="H51" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="6:22">
+      <c r="N52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="6:22" ht="18" thickBot="1">
+      <c r="R53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="6:22" ht="18" thickBot="1">
+      <c r="H54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="N54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O54" s="6"/>
+      <c r="R54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="6:22" ht="18" thickBot="1"/>
+    <row r="56" spans="6:22" ht="18" thickBot="1">
+      <c r="F56" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K56" s="6"/>
+      <c r="M56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N56" s="6"/>
+      <c r="P56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="63" spans="6:22" ht="18" thickBot="1">
+      <c r="V63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="6:22" ht="18" thickBot="1">
+      <c r="H64" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" s="6"/>
+      <c r="M64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="6:17">
+      <c r="O65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="6:17" ht="18" thickBot="1">
+      <c r="Q66" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="6:17" ht="18" thickBot="1">
+      <c r="H67" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="N67" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="68" spans="6:17" ht="18" thickBot="1"/>
+    <row r="69" spans="6:17" ht="18" thickBot="1">
+      <c r="F69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K69" s="6"/>
+      <c r="M69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N69" s="6"/>
+      <c r="P69" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q69" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="Q8:R8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/doctor.xlsx
+++ b/docs/doctor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\is2js\IdeaProjects\object\doctor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE740E4F-5631-4B36-9B74-EE0081D47102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A85FEBF-9F6A-418E-B265-B4FB6EA1B615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5232" yWindow="2448" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{30BBED63-F7C0-40C5-866E-E705D16EC134}"/>
   </bookViews>
@@ -544,10 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. director는 [외부]에서 기획서를 [받기기능]으로 받아서 저장하므로 안다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>director.addPaper( paper )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,6 +672,10 @@
   </si>
   <si>
     <t>5. 디렉터는 내부생성 하위도메인 Programmer +  외부에서 받아오는 ProjectPaper를 가지고 [외부에 getter최종프로그램반환 제공기능]하며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. director는 [외부]에서 기획서를 [void setter 여러 개add 받기기능]으로 받아서 저장하므로 안다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13694,8 +13694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B10D1B8-D54B-4833-A6DD-E681E2374463}">
   <dimension ref="D3:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -13776,7 +13776,7 @@
     </row>
     <row r="20" spans="8:12">
       <c r="J20" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="8:12" ht="18" thickBot="1">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="I22" s="6"/>
       <c r="L22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="8:12" ht="18" thickBot="1"/>
@@ -13811,13 +13811,13 @@
     <row r="33" spans="4:18" ht="18" thickBot="1">
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
@@ -13832,23 +13832,23 @@
     </row>
     <row r="35" spans="4:18">
       <c r="E35" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" t="s">
         <v>109</v>
-      </c>
-      <c r="L35" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="4:18">
       <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" t="s">
         <v>111</v>
-      </c>
-      <c r="L36" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" spans="4:18" ht="18" thickBot="1">
       <c r="K37" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="4:18" ht="18" thickBot="1">
@@ -13857,12 +13857,12 @@
       </c>
       <c r="I38" s="6"/>
       <c r="K38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="4:18">
       <c r="N39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="4:18" ht="18" thickBot="1"/>
@@ -13872,13 +13872,13 @@
       </c>
       <c r="I41" s="6"/>
       <c r="N41" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="4:18" ht="18" thickBot="1">
       <c r="R42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="4:18" ht="18" thickBot="1">
@@ -13889,15 +13889,15 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K43" s="6"/>
       <c r="M43" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N43" s="6"/>
       <c r="P43" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q43" s="6"/>
     </row>
@@ -13910,12 +13910,12 @@
     </row>
     <row r="52" spans="6:22">
       <c r="N52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="6:22" ht="18" thickBot="1">
       <c r="R53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="6:22" ht="18" thickBot="1">
@@ -13924,11 +13924,11 @@
       </c>
       <c r="I54" s="6"/>
       <c r="N54" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O54" s="6"/>
       <c r="R54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="6:22" ht="18" thickBot="1"/>
@@ -13940,21 +13940,21 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K56" s="6"/>
       <c r="M56" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N56" s="6"/>
       <c r="P56" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q56" s="6"/>
     </row>
     <row r="63" spans="6:22" ht="18" thickBot="1">
       <c r="V63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="6:22" ht="18" thickBot="1">
@@ -13963,17 +13963,17 @@
       </c>
       <c r="I64" s="6"/>
       <c r="M64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="6:17">
       <c r="O65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="6:17" ht="18" thickBot="1">
       <c r="Q66" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="6:17" ht="18" thickBot="1">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="I67" s="6"/>
       <c r="N67" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O67" s="6"/>
     </row>
@@ -13995,15 +13995,15 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K69" s="6"/>
       <c r="M69" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N69" s="6"/>
       <c r="P69" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q69" s="6"/>
     </row>

--- a/docs/doctor.xlsx
+++ b/docs/doctor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\is2js\IdeaProjects\object\doctor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A85FEBF-9F6A-418E-B265-B4FB6EA1B615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507D7A6-5616-43AC-A5C8-706DDC77FAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5232" yWindow="2448" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{30BBED63-F7C0-40C5-866E-E705D16EC134}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="125">
   <si>
     <t>package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,14 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>director.addPaper( paper )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pacakge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,6 +670,18 @@
     <t>1. director는 [외부]에서 기획서를 [void setter 여러 개add 받기기능]으로 받아서 저장하므로 안다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">  이 때, db저장용 필드가 아니라 비즈니스 로직용(검증, 내부에서 처리)으로 map으로 저장한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director.addPaper( "프로젝트명", 프로젝트객체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">director가 받을 수 있는 프로젝트 기획서는 2종류이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -748,7 +752,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -782,13 +786,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,6 +838,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -10886,13 +10908,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>664029</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10939,13 +10961,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>664029</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10992,13 +11014,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>664029</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11045,13 +11067,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11098,13 +11120,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>391885</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>195943</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11151,13 +11173,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11204,13 +11226,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13694,8 +13716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B10D1B8-D54B-4833-A6DD-E681E2374463}">
   <dimension ref="D3:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U68" sqref="U68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -13776,21 +13798,26 @@
     </row>
     <row r="20" spans="8:12">
       <c r="J20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="8:12" ht="18" thickBot="1">
-      <c r="L21" t="s">
-        <v>100</v>
+      <c r="J21" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="8:12" ht="18" thickBot="1">
       <c r="H22" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I22" s="6"/>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12">
+      <c r="L23" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="8:12" ht="18" thickBot="1"/>
@@ -13799,6 +13826,9 @@
         <v>95</v>
       </c>
       <c r="I28" s="6"/>
+      <c r="K28" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="30" spans="8:12" ht="18" thickBot="1"/>
     <row r="31" spans="8:12" ht="18" thickBot="1">
@@ -13808,21 +13838,21 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="8:12" ht="18" thickBot="1"/>
-    <row r="33" spans="4:18" ht="18" thickBot="1">
+    <row r="33" spans="4:17" ht="18" thickBot="1">
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="4:18">
+    <row r="34" spans="4:17">
       <c r="D34" t="s">
         <v>98</v>
       </c>
@@ -13830,76 +13860,77 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="4:18">
+    <row r="35" spans="4:17">
       <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17">
+      <c r="E36" t="s">
         <v>108</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="4:18">
-      <c r="E36" t="s">
+    <row r="40" spans="4:17" ht="18" thickBot="1">
+      <c r="K40" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" ht="18" thickBot="1">
+      <c r="H41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="K41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17">
+      <c r="N42" t="s">
         <v>110</v>
       </c>
-      <c r="L36" t="s">
+    </row>
+    <row r="43" spans="4:17" ht="18" thickBot="1"/>
+    <row r="44" spans="4:17" ht="18" thickBot="1">
+      <c r="H44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="N44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="4:17" ht="18" thickBot="1"/>
+    <row r="46" spans="4:17" ht="18" thickBot="1">
+      <c r="F46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="M46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N46" s="6"/>
+      <c r="P46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="4:17">
+      <c r="M47" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="4:18" ht="18" thickBot="1">
-      <c r="K37" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="4:18" ht="18" thickBot="1">
-      <c r="H38" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="K38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="4:18">
-      <c r="N39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="4:18" ht="18" thickBot="1"/>
-    <row r="41" spans="4:18" ht="18" thickBot="1">
-      <c r="H41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="N41" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="4:18" ht="18" thickBot="1">
-      <c r="R42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="4:18" ht="18" thickBot="1">
-      <c r="F43" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="M43" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="N43" s="6"/>
-      <c r="P43" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q43" s="6"/>
     </row>
     <row r="50" spans="6:22" ht="18" thickBot="1"/>
     <row r="51" spans="6:22" ht="18" thickBot="1">
@@ -13910,12 +13941,12 @@
     </row>
     <row r="52" spans="6:22">
       <c r="N52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="6:22" ht="18" thickBot="1">
       <c r="R53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="6:22" ht="18" thickBot="1">
@@ -13924,11 +13955,11 @@
       </c>
       <c r="I54" s="6"/>
       <c r="N54" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O54" s="6"/>
       <c r="R54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="6:22" ht="18" thickBot="1"/>
@@ -13940,21 +13971,21 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K56" s="6"/>
       <c r="M56" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N56" s="6"/>
       <c r="P56" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q56" s="6"/>
     </row>
     <row r="63" spans="6:22" ht="18" thickBot="1">
       <c r="V63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="6:22" ht="18" thickBot="1">
@@ -13963,17 +13994,17 @@
       </c>
       <c r="I64" s="6"/>
       <c r="M64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="6:17">
       <c r="O65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="6:17" ht="18" thickBot="1">
       <c r="Q66" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="6:17" ht="18" thickBot="1">
@@ -13982,7 +14013,7 @@
       </c>
       <c r="I67" s="6"/>
       <c r="N67" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O67" s="6"/>
     </row>
@@ -13995,20 +14026,24 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K69" s="6"/>
       <c r="M69" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N69" s="6"/>
       <c r="P69" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q69" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="P46:Q46"/>
     <mergeCell ref="P56:Q56"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="H67:I67"/>
@@ -14023,15 +14058,11 @@
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="M56:N56"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="H44:I44"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="J33:K33"/>
-    <mergeCell ref="H38:I38"/>
     <mergeCell ref="H41:I41"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:K43"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H31:I31"/>

--- a/docs/doctor.xlsx
+++ b/docs/doctor.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\is2js\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\is2js\IdeaProjects\object\doctor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F717C-C561-4981-92DB-B240E36F63C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A133B4A9-C429-4546-BCF4-6D16E7941BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{30BBED63-F7C0-40C5-866E-E705D16EC134}"/>
+    <workbookView xWindow="5232" yWindow="2448" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{30BBED63-F7C0-40C5-866E-E705D16EC134}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="1" r:id="rId1"/>
     <sheet name="v2" sheetId="2" r:id="rId2"/>
+    <sheet name="develop" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="125">
   <si>
     <t>package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,15 +500,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 정책이 적용되어야하는 객체는 전략객체 policy를 생성자 주입받아 알고 있다.</t>
+    <t>createDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 정책이 적용되는 조건은 trigger메서드를 담고 있는데, policy가 내부에서 알고서 받아 조건문으로 사용한다.</t>
+    <t>Treatment(치료정보)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>createDate</t>
+    <t>PolicyApplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolicyApplierFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Director</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxPackage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectPaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 패키지 프로젝트는 front(client) + back(server) 다 짜야한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료실 프로젝트는 front(client)작업만 하면 server는 공통으로 사용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Director()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pacakge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2가지program을 결과물로 얻는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1가지 program만 결과물로 얻는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front랭기지 + back랭기지,back서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front랭기지, frontLibrary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmer는 paper를 메서드 인자로 받아서 안다. -&gt; paper정보를 input으로 getter프로그램반환의 [제공기능]을 디렉터 내부에서 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmer는 2개의 팀을 가지고 있으며, 각각이 1개씩의 프로그램을 만들어 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. paper는 받아올때부터, 개발자란이 비어있어서 -&gt; [받기기능]을 통해 programmer를 알고서 메서드 인자로 받아와 뒤늦게 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper.setFrontProgrammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 2팀다 필요한 경우 paper.setBackEndProgrammer도 호출해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 디렉터는 받아와 가지고 있는 paper를 [하위도메인으로서 외부에서 안받고 내부에서 생성하여 섭외하는 programmer]를 안다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인에서 내부 생성/섭외 객체 = 내 하위도메인으로서, 나를fk로 보고 생성되는 내부발행객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director.runProject(  어떤ProjectPaper );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">내부에서 Programmer 와 ProjectPaper가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서로에게 정보를 제공하는 트랜잭션 관계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인데</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>둘다 인터페이스로서 구상체 종류마다 서로 다른 정보를 전달하는 상황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 디렉터는 내부생성 하위도메인 Programmer +  외부에서 받아오는 ProjectPaper를 가지고 [외부에 getter최종프로그램반환 제공기능]하며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. director는 [외부]에서 기획서를 [void setter 여러 개add 받기기능]으로 받아서 저장하므로 안다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  이 때, db저장용 필드가 아니라 비즈니스 로직용(검증, 내부에서 처리)으로 map으로 저장한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director.addPaper( "프로젝트명", 프로젝트객체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">director가 받을 수 있는 프로젝트 기획서는 2종류이다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +735,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -574,7 +752,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -608,21 +786,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -635,6 +822,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7693,13 +7898,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
+      <xdr:colOff>35859</xdr:colOff>
       <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
+      <xdr:colOff>8965</xdr:colOff>
       <xdr:row>173</xdr:row>
       <xdr:rowOff>170331</xdr:rowOff>
     </xdr:to>
@@ -7716,7 +7921,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8785412" y="39355059"/>
+          <a:off x="8776447" y="39355059"/>
           <a:ext cx="1317812" cy="170331"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -7790,6 +7995,4628 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="직선 화살표 연결선 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856D3D6A-54E0-4379-9C1D-91A0A0E0B17B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4033670" y="39844085"/>
+          <a:ext cx="0" cy="801891"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="연결선: 꺾임 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822654F8-5F3B-43D7-B554-021D12D8586C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2017060" y="39830190"/>
+          <a:ext cx="1335741" cy="1013011"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99665"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="연결선: 꺾임 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E5355A-CBCF-4348-A220-54BA2E6B325F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4657164" y="39449190"/>
+          <a:ext cx="1479177" cy="1326776"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 909"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627531</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>233082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="연결선: 꺾임 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE864C35-2DCC-448D-B019-C9885417F04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4034119" y="39220587"/>
+          <a:ext cx="1299883" cy="359934"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="연결선: 꺾임 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E55B79-634C-4C70-AE95-407FEEEF0419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5387789" y="38754425"/>
+          <a:ext cx="663387" cy="367552"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="연결선: 꺾임 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5D38B7-C45B-4041-8500-6F275203660F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3433483" y="39005436"/>
+          <a:ext cx="815787" cy="349624"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -549"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="연결선: 꺾임 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB3E57-84CF-4C79-A87B-69B14016288E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3406589" y="38476518"/>
+          <a:ext cx="1299884" cy="161364"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>262592</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>275292</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="연결선: 꺾임 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4AD1B2-6578-49AD-9366-73F58AE459E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1819836" y="39121976"/>
+          <a:ext cx="932329" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="연결선: 꺾임 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FFF04B-8498-46C2-98DA-14BF95DCC490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2680448" y="38987505"/>
+          <a:ext cx="1021977" cy="376518"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663390</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="연결선: 꺾임 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B861B60B-9921-4395-9CB3-1833EBE2D17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1801908" y="39372987"/>
+          <a:ext cx="2223246" cy="878543"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 403"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="연결선: 꺾임 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32290657-BC32-4125-8C32-1F8DD5195EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4733365" y="39480565"/>
+          <a:ext cx="2662517" cy="1425388"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86700"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="연결선: 꺾임 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6629B58C-EBDB-42EB-9A82-9E939EC48B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="40968706"/>
+          <a:ext cx="2662518" cy="143435"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="연결선: 꺾임 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31470E90-679E-4625-9F0B-17B63C498409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8776447" y="39355059"/>
+          <a:ext cx="1317812" cy="170331"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99660"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666003</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>221504</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="연결선: 꺾임 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB79BED-AB28-4E66-80A3-62F420B6AFD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9953439" y="38984893"/>
+          <a:ext cx="248398" cy="2612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>35218</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>129990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="연결선: 꺾임 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADA41D2-4DD2-42CB-B949-D093044B6E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10833847" y="41082686"/>
+          <a:ext cx="1336382" cy="347704"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98874"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="직선 화살표 연결선 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D694ACD5-D1DD-4CA0-AC80-CD05E677CCB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4046476" y="42009061"/>
+          <a:ext cx="0" cy="782682"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="연결선: 꺾임 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4AFF00-CF37-4935-8C52-9B8DBE7C837B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2024744" y="41995166"/>
+          <a:ext cx="1338302" cy="989319"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99665"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="연결선: 꺾임 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D3E760-244C-4780-B31E-FE53EF230EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4693984" y="41604240"/>
+          <a:ext cx="1446520" cy="1331900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 909"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627531</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>233082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="연결선: 꺾임 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4F3B34-5F1D-40AE-84DB-F7508D23CF66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4049487" y="41399011"/>
+          <a:ext cx="1302444" cy="355451"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="연결선: 꺾임 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE261C4-43B0-43FB-AF5A-9674C6D49AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5408279" y="40941813"/>
+          <a:ext cx="665950" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="연결선: 꺾임 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703A4839-5033-4773-8DB8-3F0E59EFF74D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3455254" y="41183859"/>
+          <a:ext cx="797858" cy="349624"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -549"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="연결선: 꺾임 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED5EDDD-95B2-4D54-91A9-B9D71BE8842B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3419395" y="40668389"/>
+          <a:ext cx="1305007" cy="161364"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>262592</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>275292</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="연결선: 꺾임 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADCDC88-B8D1-47D8-9F4C-0D9B771F5CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1836485" y="41300399"/>
+          <a:ext cx="914400" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="연결선: 꺾임 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F443F6-CCD2-4DE9-A98E-2F9BC43B820B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2700939" y="41164647"/>
+          <a:ext cx="1004048" cy="379079"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663390</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="연결선: 꺾임 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F5A51B-64FF-4219-9989-0E26C44A3478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1833924" y="41536043"/>
+          <a:ext cx="2177142" cy="881104"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 403"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="연결선: 꺾임 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2F0E25-BFA0-4DD5-A268-2C5815206672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4751294" y="41654506"/>
+          <a:ext cx="2672763" cy="1392731"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86700"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="연결선: 꺾임 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09A9743-0364-492D-9C14-E3BBFAC5C7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4742329" y="43105508"/>
+          <a:ext cx="2670203" cy="143435"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="연결선: 꺾임 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAEC013-08CC-4A1E-B736-58D287CDFDEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8809745" y="41529000"/>
+          <a:ext cx="1322934" cy="170331"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99660"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666003</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>221504</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="연결선: 꺾임 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614231A6-9B3B-4892-A7C3-28B1715A8824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9991539" y="41170040"/>
+          <a:ext cx="243916" cy="2612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76777"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>35218</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>129990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="연결선: 꺾임 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6746C355-A6EF-43B3-853E-69F04727AD8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10833847" y="41082686"/>
+          <a:ext cx="1336382" cy="347704"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98874"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666003</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>221504</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="연결선: 꺾임 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55CAD4A-DAC1-2365-7FD6-5B1756EBCBA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="11902401" y="44675240"/>
+          <a:ext cx="243916" cy="2612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76777"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17632</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>181707</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>88960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="연결선: 꺾임 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0802DA97-59EC-1C86-4CB9-468A44B6FC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10709078" y="44582862"/>
+          <a:ext cx="832291" cy="774760"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>671905</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="직선 화살표 연결선 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE39558-D29F-4F18-8778-A13DA4002691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4024705" y="45773341"/>
+          <a:ext cx="0" cy="792479"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="연결선: 꺾임 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0BC415-1A2D-46AD-836F-15A1980D45F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2011681" y="45759446"/>
+          <a:ext cx="1333948" cy="999116"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99665"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="연결선: 꺾임 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54A1738-6B3A-4C71-90C4-F71FC98D9554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4654251" y="45377773"/>
+          <a:ext cx="1456317" cy="1323191"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 909"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>627531</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>233082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="연결선: 꺾임 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8B65CA-BD3C-40FD-A478-F7FCD358BE95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4023361" y="45163291"/>
+          <a:ext cx="1298090" cy="355451"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="연결선: 꺾임 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1680BBF5-CE69-4147-B47C-5BA3E782B2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5373445" y="44706093"/>
+          <a:ext cx="661595" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="연결선: 꺾임 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA477D73-EAE4-4D2A-BF7F-870F00D460B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3433483" y="44948139"/>
+          <a:ext cx="797858" cy="349624"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -549"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="연결선: 꺾임 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40572D3-EC14-433E-B731-5D5C3A5504B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3397624" y="44432669"/>
+          <a:ext cx="1296298" cy="161364"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>262592</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275292</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="연결선: 꺾임 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A588A2-B02C-4166-9145-F4C41CBD0C6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1823422" y="45064679"/>
+          <a:ext cx="914400" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="연결선: 꺾임 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E936121B-84CA-464F-8332-846F6BF58F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2681345" y="44931104"/>
+          <a:ext cx="1004048" cy="374725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663390</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="연결선: 꺾임 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B1DD71-A1EE-43BA-8A3A-1BFD7DAFAE52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1813785" y="45307399"/>
+          <a:ext cx="2186939" cy="876750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 403"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="연결선: 꺾임 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AB764F-6DDE-4E12-853C-C96916540744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4720814" y="45418786"/>
+          <a:ext cx="2655346" cy="1402528"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86700"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>663389</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="연결선: 꺾임 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE28D9A-C4F8-450B-B870-9F4C523DD2AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4711849" y="46879585"/>
+          <a:ext cx="2657140" cy="143435"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="연결선: 꺾임 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6F3435-B503-4E60-B293-62DEF2D87C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8753139" y="45293280"/>
+          <a:ext cx="1314226" cy="170331"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99660"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666003</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221504</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="연결선: 꺾임 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6E1648-4DC0-4CA6-AA03-6B2D64CD2174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9930579" y="44934320"/>
+          <a:ext cx="243916" cy="2612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76777"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>35218</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="연결선: 꺾임 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2D6D37-39CD-4F4F-9862-0E8D6275D6E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10764178" y="44846966"/>
+          <a:ext cx="1327674" cy="347704"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98874"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666003</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>221504</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="연결선: 꺾임 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC14AF1-E8D5-498A-B9F0-904B6F3CF301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="11942259" y="44477120"/>
+          <a:ext cx="243916" cy="2612"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76777"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17632</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>181707</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="연결선: 꺾임 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883FDEAD-F6A2-48D4-8BDF-B7FB6F9EFCA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10746592" y="44378880"/>
+          <a:ext cx="834635" cy="774760"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAFAE94-3ADC-8FFE-7826-F7813E5407D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="4310743"/>
+          <a:ext cx="10885" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CA1A72-4878-4A42-9E65-BBC333B74F30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="4310743"/>
+          <a:ext cx="10885" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="직선 화살표 연결선 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C97C4A-27A9-E2EF-E3CE-C85754ED3B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746171" y="6977743"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C1390A-CEEE-3AF7-7CE5-96C4F81D572D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="6977743"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98185B46-91E2-4B94-ADB8-23D0E89346BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="6313714"/>
+          <a:ext cx="10885" cy="370114"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 화살표 연결선 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F73BDDA-DA2E-4311-A1D4-049A2DE10C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746171" y="6977743"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781F3FA4-CC44-4BAE-931A-62A0DC38A6EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="6977743"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="직선 화살표 연결선 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9340A4-BB02-D965-37B9-7642128FEAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="8392886"/>
+          <a:ext cx="2677886" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE4D155-D213-CAB6-561F-7284D5B180D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9165771" y="9209315"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0411EACC-65D9-9C8A-8EA9-4F6E211387F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9808029" y="9209315"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="직선 화살표 연결선 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736F9F00-175F-B749-F901-4458EECB3F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="9122229"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="직선 화살표 연결선 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A084E7D-D974-4312-860E-0CC41E72EC5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="8556171"/>
+          <a:ext cx="10885" cy="370115"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="직선 화살표 연결선 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11EBA1AC-3015-46E0-84D5-3A0E2C262926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746171" y="9220201"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="직선 화살표 연결선 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715C65F9-C0CE-41C4-A980-F839D0DF61DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="9220201"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C400161A-3965-488B-81CA-1E56406AC409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="8392886"/>
+          <a:ext cx="2677886" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="직선 화살표 연결선 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221A7666-DEAB-4F55-8ACA-ECC12486DB59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9165771" y="9209315"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="직선 화살표 연결선 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927304EC-2879-410A-AA42-A6732BD54142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9808029" y="9209315"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="직선 화살표 연결선 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2B551F-70D6-4877-A5C9-356091AFFEC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="9122229"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="직선 화살표 연결선 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE115E9-6222-70B7-777A-CEC14021D9D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="11941629"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="직선 화살표 연결선 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95EA87E-F2F3-456F-823F-9235362E90A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="11451771"/>
+          <a:ext cx="10885" cy="370115"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1B8031-2BFD-492B-9AB7-5FEE8139D89E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746171" y="12115801"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="직선 화살표 연결선 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09420C51-3A0D-458F-84A1-63441026915D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="12115801"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="직선 화살표 연결선 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B98C07-4335-4114-9919-538A49B7C352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="11288486"/>
+          <a:ext cx="2677886" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="직선 화살표 연결선 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44772716-53F4-480F-A95C-606BE6CE677D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9165771" y="12104915"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="직선 화살표 연결선 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDCC49A-1D7B-4701-B4DE-7297EF617065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9808029" y="12104915"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="직선 화살표 연결선 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099C8DE0-5F06-4FCD-B083-BD621FC7C6FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="12017829"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="직선 화살표 연결선 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E66DCE-CDA7-4BC4-B6EF-64E2F343B40A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="11941629"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="사각형: 둥근 모서리 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3573A45A-A054-2A63-B93C-0B0C41CB3510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3145971" y="14575971"/>
+          <a:ext cx="8382000" cy="1208315"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="직선 화살표 연결선 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137D5298-8EF2-463A-867F-A1FDC00A0CD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5388429" y="14347371"/>
+          <a:ext cx="10885" cy="370115"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="직선 화살표 연결선 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547B6244-21FF-4823-A357-3C91116CCA48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746171" y="15011401"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="직선 화살표 연결선 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62179546-62F0-4A02-A7DE-9168C5DF8A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="15011401"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="직선 화살표 연결선 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CB22D8-CB1B-435E-AF80-A743A329F232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="14184086"/>
+          <a:ext cx="2677886" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="직선 화살표 연결선 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AD61FC-34DD-4986-B142-4CE28DF9106D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9165771" y="15000515"/>
+          <a:ext cx="642258" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="직선 화살표 연결선 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5CE978D-964B-4454-855F-5C7B8B974759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9808029" y="15000515"/>
+          <a:ext cx="696685" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="직선 화살표 연결선 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31E97DE-15F0-446F-9CD1-4900B430CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="14913429"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="직선 화살표 연결선 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F083C0B7-1453-4AF4-BC13-8CC601431E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6085114" y="14837229"/>
+          <a:ext cx="2667000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -8104,105 +12931,105 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="12" spans="8:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="8:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H13" s="1" t="s">
+    <row r="12" spans="8:13" ht="18" thickBot="1"/>
+    <row r="13" spans="8:13" ht="18" thickBot="1">
+      <c r="H13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="K13" s="1" t="s">
+      <c r="I13" s="9"/>
+      <c r="K13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.4">
+      <c r="L13" s="9"/>
+    </row>
+    <row r="15" spans="8:13">
       <c r="M15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="8:13">
       <c r="M16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K18" s="1" t="s">
+    <row r="17" spans="8:15" ht="18" thickBot="1"/>
+    <row r="18" spans="8:15" ht="18" thickBot="1">
+      <c r="K18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="25" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N26" s="1" t="s">
+      <c r="L18" s="9"/>
+    </row>
+    <row r="25" spans="8:15" ht="18" thickBot="1"/>
+    <row r="26" spans="8:15" ht="18" thickBot="1">
+      <c r="N26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H28" s="1" t="s">
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="8:15" ht="18" thickBot="1"/>
+    <row r="28" spans="8:15" ht="18" thickBot="1">
+      <c r="H28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="K28" s="1" t="s">
+      <c r="I28" s="9"/>
+      <c r="K28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="31" spans="8:15" x14ac:dyDescent="0.4">
+      <c r="L28" s="9"/>
+    </row>
+    <row r="31" spans="8:15">
       <c r="O31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="8:15" ht="18" thickBot="1">
       <c r="O32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K33" s="1" t="s">
+    <row r="33" spans="8:15" ht="18" thickBot="1">
+      <c r="K33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="39" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L33" s="9"/>
+    </row>
+    <row r="39" spans="8:15" ht="18" thickBot="1">
       <c r="L39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N40" s="1" t="s">
+    <row r="40" spans="8:15" ht="18" thickBot="1">
+      <c r="N40" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H42" s="1" t="s">
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="8:15" ht="18" thickBot="1"/>
+    <row r="42" spans="8:15" ht="18" thickBot="1">
+      <c r="H42" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="K42" s="1" t="s">
+      <c r="I42" s="9"/>
+      <c r="K42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="46" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K47" s="1" t="s">
+      <c r="L42" s="9"/>
+    </row>
+    <row r="46" spans="8:15" ht="18" thickBot="1"/>
+    <row r="47" spans="8:15" ht="18" thickBot="1">
+      <c r="K47" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.4">
+      <c r="L47" s="9"/>
+    </row>
+    <row r="49" spans="8:15">
       <c r="H49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="8:15" ht="18" thickBot="1">
       <c r="H50" t="s">
         <v>15</v>
       </c>
@@ -8210,252 +13037,252 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L51" s="1" t="s">
+    <row r="51" spans="8:15" ht="18" thickBot="1">
+      <c r="L51" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" s="9"/>
       <c r="O51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="53" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N53" s="1" t="s">
+    <row r="52" spans="8:15" ht="18" thickBot="1"/>
+    <row r="53" spans="8:15" ht="18" thickBot="1">
+      <c r="N53" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H55" s="1" t="s">
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="8:15" ht="18" thickBot="1"/>
+    <row r="55" spans="8:15" ht="18" thickBot="1">
+      <c r="H55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="2"/>
-      <c r="K55" s="1" t="s">
+      <c r="I55" s="9"/>
+      <c r="K55" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="59" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="60" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K60" s="1" t="s">
+      <c r="L55" s="9"/>
+    </row>
+    <row r="59" spans="8:15" ht="18" thickBot="1"/>
+    <row r="60" spans="8:15" ht="18" thickBot="1">
+      <c r="K60" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="65" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="L60" s="9"/>
+    </row>
+    <row r="65" spans="8:18">
       <c r="M65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="8:18" ht="18" thickBot="1">
       <c r="M66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I67" s="1" t="s">
+    <row r="67" spans="8:18" ht="18" thickBot="1">
+      <c r="I67" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="9"/>
       <c r="Q67" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L68" s="1" t="s">
+    <row r="68" spans="8:18" ht="18" thickBot="1">
+      <c r="L68" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M68" s="2"/>
+      <c r="M68" s="9"/>
       <c r="Q68" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="8:18" ht="18" thickBot="1">
       <c r="R69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N70" s="1" t="s">
+    <row r="70" spans="8:18" ht="18" thickBot="1">
+      <c r="N70" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O70" s="2"/>
+      <c r="O70" s="9"/>
       <c r="R70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="8:18" ht="18" thickBot="1">
       <c r="R71" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H72" s="1" t="s">
+    <row r="72" spans="8:18" ht="18" thickBot="1">
+      <c r="H72" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="2"/>
-      <c r="K72" s="1" t="s">
+      <c r="I72" s="9"/>
+      <c r="K72" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="2"/>
+      <c r="L72" s="9"/>
       <c r="R72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="8:18" x14ac:dyDescent="0.4">
+    <row r="73" spans="8:18">
       <c r="R73" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="8:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K77" s="1" t="s">
+    <row r="76" spans="8:18" ht="18" thickBot="1"/>
+    <row r="77" spans="8:18" ht="18" thickBot="1">
+      <c r="K77" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="83" spans="8:15" x14ac:dyDescent="0.4">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="83" spans="8:15">
       <c r="I83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="8:15" ht="18" thickBot="1">
       <c r="I84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I85" s="1" t="s">
+    <row r="85" spans="8:15" ht="18" thickBot="1">
+      <c r="I85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L86" s="1" t="s">
+      <c r="J85" s="9"/>
+    </row>
+    <row r="86" spans="8:15" ht="18" thickBot="1">
+      <c r="L86" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="88" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N88" s="1" t="s">
+      <c r="M86" s="9"/>
+    </row>
+    <row r="87" spans="8:15" ht="18" thickBot="1"/>
+    <row r="88" spans="8:15" ht="18" thickBot="1">
+      <c r="N88" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O88" s="2"/>
-    </row>
-    <row r="89" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="90" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H90" s="1" t="s">
+      <c r="O88" s="9"/>
+    </row>
+    <row r="89" spans="8:15" ht="18" thickBot="1"/>
+    <row r="90" spans="8:15" ht="18" thickBot="1">
+      <c r="H90" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="2"/>
-      <c r="K90" s="1" t="s">
+      <c r="I90" s="9"/>
+      <c r="K90" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L90" s="2"/>
-    </row>
-    <row r="94" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="95" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K95" s="1" t="s">
+      <c r="L90" s="9"/>
+    </row>
+    <row r="94" spans="8:15" ht="18" thickBot="1"/>
+    <row r="95" spans="8:15" ht="18" thickBot="1">
+      <c r="K95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L95" s="2"/>
-    </row>
-    <row r="102" spans="8:15" x14ac:dyDescent="0.4">
+      <c r="L95" s="9"/>
+    </row>
+    <row r="102" spans="8:15">
       <c r="I102" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="8:15" ht="18" thickBot="1">
       <c r="I103" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I104" s="1" t="s">
+    <row r="104" spans="8:15" ht="18" thickBot="1">
+      <c r="I104" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L105" s="1" t="s">
+      <c r="J104" s="9"/>
+    </row>
+    <row r="105" spans="8:15" ht="18" thickBot="1">
+      <c r="L105" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="107" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N107" s="1" t="s">
+      <c r="M105" s="9"/>
+    </row>
+    <row r="106" spans="8:15" ht="18" thickBot="1"/>
+    <row r="107" spans="8:15" ht="18" thickBot="1">
+      <c r="N107" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O107" s="2"/>
-    </row>
-    <row r="108" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="109" spans="8:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H109" s="1" t="s">
+      <c r="O107" s="9"/>
+    </row>
+    <row r="108" spans="8:15" ht="18" thickBot="1"/>
+    <row r="109" spans="8:15" ht="18" thickBot="1">
+      <c r="H109" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I109" s="2"/>
-      <c r="K109" s="1" t="s">
+      <c r="I109" s="9"/>
+      <c r="K109" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L109" s="2"/>
-    </row>
-    <row r="113" spans="11:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="114" spans="11:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K114" s="1" t="s">
+      <c r="L109" s="9"/>
+    </row>
+    <row r="113" spans="11:12" ht="18" thickBot="1"/>
+    <row r="114" spans="11:12" ht="18" thickBot="1">
+      <c r="K114" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="11:12">
       <c r="K115" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="11:12">
       <c r="K116" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L68:M68"/>
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="N40:O40"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N53:O53"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="I104:J104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8466,94 +13293,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB51B26-4DFE-4B26-AC82-930ED7FAC78C}">
-  <dimension ref="B3:P181"/>
+  <dimension ref="B3:S210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A210" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O207" sqref="O207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="3" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E4" s="1" t="s">
+    <row r="3" spans="4:15" ht="18" thickBot="1"/>
+    <row r="4" spans="4:15" ht="18" thickBot="1">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H5" s="1" t="s">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="4:15" ht="18" thickBot="1">
+      <c r="H5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J7" s="1" t="s">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="4:15" ht="18" thickBot="1"/>
+    <row r="7" spans="4:15" ht="18" thickBot="1">
+      <c r="J7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M8" s="1" t="s">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="4:15" ht="18" thickBot="1">
+      <c r="M8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="1" t="s">
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="4:15" ht="18" thickBot="1">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="9"/>
+      <c r="G9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="9"/>
       <c r="N9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:15">
       <c r="N10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:15">
       <c r="N11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:15">
       <c r="N12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" ht="18" thickBot="1"/>
+    <row r="14" spans="4:15" ht="18" thickBot="1">
+      <c r="G14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="9"/>
       <c r="N14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="4:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M15" s="1" t="s">
+    <row r="15" spans="4:15" ht="18" thickBot="1">
+      <c r="M15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" s="9"/>
       <c r="O15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.4">
-      <c r="I16" s="3"/>
+    <row r="16" spans="4:15">
+      <c r="I16" s="1"/>
       <c r="N16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>47</v>
       </c>
@@ -8564,7 +13391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15">
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -8572,538 +13399,727 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="N20" s="4" t="s">
+    <row r="19" spans="2:15">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="N20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="N21" s="4" t="s">
+    <row r="21" spans="2:15">
+      <c r="N21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="N22" s="5" t="s">
+    <row r="22" spans="2:15">
+      <c r="N22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="N23" s="5" t="s">
+    <row r="23" spans="2:15">
+      <c r="N23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D46" s="1" t="s">
+    <row r="45" spans="4:8" ht="18" thickBot="1"/>
+    <row r="46" spans="4:8" ht="18" thickBot="1">
+      <c r="D46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G47" s="1" t="s">
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="4:8" ht="18" thickBot="1">
+      <c r="G47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="49" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I49" s="1" t="s">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="4:8" ht="18" thickBot="1"/>
+    <row r="49" spans="3:13" ht="18" thickBot="1">
+      <c r="I49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L50" s="1" t="s">
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="3:13" ht="18" thickBot="1">
+      <c r="L50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="1" t="s">
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="3:13" ht="18" thickBot="1">
+      <c r="C51" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="F51" s="1" t="s">
+      <c r="D51" s="9"/>
+      <c r="F51" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="55" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="56" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F56" s="1" t="s">
+      <c r="G51" s="9"/>
+    </row>
+    <row r="55" spans="3:13" ht="18" thickBot="1"/>
+    <row r="56" spans="3:13" ht="18" thickBot="1">
+      <c r="F56" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L57" s="1" t="s">
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="3:13" ht="18" thickBot="1">
+      <c r="L57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M57" s="9"/>
+    </row>
+    <row r="59" spans="3:13">
       <c r="D59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:13">
       <c r="D60" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:13">
       <c r="D61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:13">
       <c r="D62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:13">
       <c r="D63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="70" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D70" s="1" t="s">
+    <row r="69" spans="3:13" ht="18" thickBot="1"/>
+    <row r="70" spans="3:13" ht="18" thickBot="1">
+      <c r="D70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G71" s="1" t="s">
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="3:13" ht="18" thickBot="1">
+      <c r="G71" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="73" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I73" s="1" t="s">
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="3:13" ht="18" thickBot="1"/>
+    <row r="73" spans="3:13" ht="18" thickBot="1">
+      <c r="I73" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L74" s="1" t="s">
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="3:13" ht="18" thickBot="1">
+      <c r="L74" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C75" s="1" t="s">
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="3:13" ht="18" thickBot="1">
+      <c r="C75" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="F75" s="1" t="s">
+      <c r="D75" s="9"/>
+      <c r="F75" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="79" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F80" s="1" t="s">
+      <c r="G75" s="9"/>
+    </row>
+    <row r="79" spans="3:13" ht="18" thickBot="1"/>
+    <row r="80" spans="3:13" ht="18" thickBot="1">
+      <c r="F80" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="4:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L81" s="1" t="s">
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="4:13" ht="18" thickBot="1">
+      <c r="L81" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="M81" s="9"/>
+    </row>
+    <row r="83" spans="4:13">
       <c r="D83" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="4:13">
       <c r="D84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="4:13">
       <c r="D85" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="4:13">
       <c r="D86" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="4:13">
       <c r="E87" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="4:13">
       <c r="E88" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="4:13">
       <c r="E89" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="4:13">
       <c r="E90" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="4:13">
       <c r="E91" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="4:13">
       <c r="E92" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="4:13">
       <c r="E93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="100" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D100" s="1" t="s">
+    <row r="99" spans="3:13" ht="18" thickBot="1"/>
+    <row r="100" spans="3:13" ht="18" thickBot="1">
+      <c r="D100" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G101" s="1" t="s">
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="3:13" ht="18" thickBot="1">
+      <c r="G101" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="103" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I103" s="1" t="s">
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="3:13" ht="18" thickBot="1"/>
+    <row r="103" spans="3:13" ht="18" thickBot="1">
+      <c r="I103" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="2"/>
-    </row>
-    <row r="104" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L104" s="1" t="s">
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" spans="3:13" ht="18" thickBot="1">
+      <c r="L104" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C105" s="1" t="s">
+      <c r="M104" s="9"/>
+    </row>
+    <row r="105" spans="3:13" ht="18" thickBot="1">
+      <c r="C105" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="F105" s="1" t="s">
+      <c r="D105" s="9"/>
+      <c r="F105" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="109" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="110" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F110" s="1" t="s">
+      <c r="G105" s="9"/>
+    </row>
+    <row r="109" spans="3:13" ht="18" thickBot="1"/>
+    <row r="110" spans="3:13" ht="18" thickBot="1">
+      <c r="F110" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M111" s="2"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:13" ht="18" thickBot="1">
+      <c r="L111" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M111" s="9"/>
+    </row>
+    <row r="114" spans="3:4">
       <c r="C114" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="3:4">
       <c r="C115" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="3:4">
       <c r="C116" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="3:4">
       <c r="D117" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="3:4">
       <c r="D118" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="3:4">
       <c r="D119" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="3:4">
       <c r="D120" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="3:4">
       <c r="D121" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="3:4">
       <c r="D122" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="3:4">
       <c r="C123" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="3:4">
       <c r="D124" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="129" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D129" s="1" t="s">
+    <row r="128" spans="3:4" ht="18" thickBot="1"/>
+    <row r="129" spans="3:13" ht="18" thickBot="1">
+      <c r="D129" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G130" s="1" t="s">
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" spans="3:13" ht="18" thickBot="1">
+      <c r="G130" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="132" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I132" s="1" t="s">
+      <c r="H130" s="9"/>
+    </row>
+    <row r="131" spans="3:13" ht="18" thickBot="1"/>
+    <row r="132" spans="3:13" ht="18" thickBot="1">
+      <c r="I132" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J132" s="2"/>
-    </row>
-    <row r="133" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L133" s="1" t="s">
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="3:13" ht="18" thickBot="1">
+      <c r="L133" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M133" s="2"/>
-    </row>
-    <row r="134" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C134" s="1" t="s">
+      <c r="M133" s="9"/>
+    </row>
+    <row r="134" spans="3:13" ht="18" thickBot="1">
+      <c r="C134" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="2"/>
-      <c r="F134" s="1" t="s">
+      <c r="D134" s="9"/>
+      <c r="F134" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="138" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="139" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F139" s="1" t="s">
+      <c r="G134" s="9"/>
+    </row>
+    <row r="138" spans="3:13" ht="18" thickBot="1"/>
+    <row r="139" spans="3:13" ht="18" thickBot="1">
+      <c r="F139" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L140" s="1" t="s">
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="3:13" ht="18" thickBot="1">
+      <c r="L140" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M140" s="2"/>
-    </row>
-    <row r="141" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M140" s="9"/>
+    </row>
+    <row r="141" spans="3:13">
       <c r="C141" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="142" spans="3:13">
       <c r="C142" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="143" spans="3:13">
       <c r="D143" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="144" spans="3:13">
       <c r="C144" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="145" spans="3:13">
       <c r="D145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="149" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D149" s="1" t="s">
+    <row r="148" spans="3:13" ht="18" thickBot="1"/>
+    <row r="149" spans="3:13" ht="18" thickBot="1">
+      <c r="D149" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G150" s="1" t="s">
+      <c r="E149" s="9"/>
+    </row>
+    <row r="150" spans="3:13" ht="18" thickBot="1">
+      <c r="G150" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H150" s="2"/>
-    </row>
-    <row r="151" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="152" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I152" s="1" t="s">
+      <c r="H150" s="9"/>
+    </row>
+    <row r="151" spans="3:13" ht="18" thickBot="1"/>
+    <row r="152" spans="3:13" ht="18" thickBot="1">
+      <c r="I152" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J152" s="2"/>
-    </row>
-    <row r="153" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L153" s="1" t="s">
+      <c r="J152" s="9"/>
+    </row>
+    <row r="153" spans="3:13" ht="18" thickBot="1">
+      <c r="L153" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M153" s="2"/>
-    </row>
-    <row r="154" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C154" s="1" t="s">
+      <c r="M153" s="9"/>
+    </row>
+    <row r="154" spans="3:13" ht="18" thickBot="1">
+      <c r="C154" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D154" s="2"/>
-      <c r="F154" s="1" t="s">
+      <c r="D154" s="9"/>
+      <c r="F154" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G154" s="2"/>
-    </row>
-    <row r="158" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="159" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F159" s="1" t="s">
+      <c r="G154" s="9"/>
+    </row>
+    <row r="158" spans="3:13" ht="18" thickBot="1"/>
+    <row r="159" spans="3:13" ht="18" thickBot="1">
+      <c r="F159" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G159" s="2"/>
-    </row>
-    <row r="160" spans="3:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L160" s="1" t="s">
+      <c r="G159" s="9"/>
+    </row>
+    <row r="160" spans="3:13" ht="18" thickBot="1">
+      <c r="L160" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M160" s="2"/>
-    </row>
-    <row r="161" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="M160" s="9"/>
+    </row>
+    <row r="161" spans="3:16">
       <c r="C161" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="162" spans="3:16">
       <c r="C162" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="163" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="163" spans="3:16">
       <c r="D163" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="164" spans="3:16">
       <c r="D164" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="165" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="165" spans="3:16">
       <c r="E165" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="166" spans="3:16">
       <c r="F166" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="167" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:16">
       <c r="F167" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="169" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="170" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D170" s="1" t="s">
+    <row r="169" spans="3:16" ht="18" thickBot="1"/>
+    <row r="170" spans="3:16" ht="18" thickBot="1">
+      <c r="D170" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G171" s="1" t="s">
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="3:16" ht="18" thickBot="1">
+      <c r="G171" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H171" s="2"/>
-      <c r="O171" s="1" t="s">
+      <c r="H171" s="9"/>
+      <c r="O171" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="P171" s="2"/>
-    </row>
-    <row r="172" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="173" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I173" s="1" t="s">
+      <c r="P171" s="9"/>
+    </row>
+    <row r="172" spans="3:16" ht="18" thickBot="1"/>
+    <row r="173" spans="3:16" ht="18" thickBot="1">
+      <c r="I173" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J173" s="2"/>
-      <c r="O173" s="1" t="s">
+      <c r="J173" s="9"/>
+      <c r="O173" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P173" s="2"/>
-    </row>
-    <row r="174" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L174" s="1" t="s">
+      <c r="P173" s="9"/>
+    </row>
+    <row r="174" spans="3:16" ht="18" thickBot="1">
+      <c r="L174" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M174" s="2"/>
-    </row>
-    <row r="175" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C175" s="1" t="s">
+      <c r="M174" s="9"/>
+    </row>
+    <row r="175" spans="3:16" ht="18" thickBot="1">
+      <c r="C175" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D175" s="2"/>
-      <c r="F175" s="1" t="s">
+      <c r="D175" s="9"/>
+      <c r="F175" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G175" s="2"/>
-    </row>
-    <row r="176" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="N176" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="177" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="N177" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="179" spans="6:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="180" spans="6:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F180" s="1" t="s">
+      <c r="G175" s="9"/>
+    </row>
+    <row r="179" spans="3:19" ht="18" thickBot="1"/>
+    <row r="180" spans="3:19" ht="18" thickBot="1">
+      <c r="F180" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G180" s="2"/>
-    </row>
-    <row r="181" spans="6:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L181" s="1" t="s">
+      <c r="G180" s="9"/>
+    </row>
+    <row r="181" spans="3:19" ht="18" thickBot="1">
+      <c r="L181" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M181" s="2"/>
+      <c r="M181" s="9"/>
+    </row>
+    <row r="183" spans="3:19" ht="18" thickBot="1"/>
+    <row r="184" spans="3:19" ht="18" thickBot="1">
+      <c r="D184" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="3:19" ht="18" thickBot="1">
+      <c r="G185" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H185" s="9"/>
+      <c r="O185" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P185" s="9"/>
+      <c r="R185" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="S185" s="9"/>
+    </row>
+    <row r="186" spans="3:19" ht="18" thickBot="1"/>
+    <row r="187" spans="3:19" ht="18" thickBot="1">
+      <c r="I187" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J187" s="9"/>
+      <c r="O187" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P187" s="9"/>
+    </row>
+    <row r="188" spans="3:19" ht="18" thickBot="1">
+      <c r="L188" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M188" s="9"/>
+    </row>
+    <row r="189" spans="3:19" ht="18" thickBot="1">
+      <c r="C189" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="9"/>
+      <c r="F189" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G189" s="9"/>
+    </row>
+    <row r="193" spans="3:19" ht="18" thickBot="1"/>
+    <row r="194" spans="3:19" ht="18" thickBot="1">
+      <c r="F194" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="9"/>
+    </row>
+    <row r="195" spans="3:19" ht="18" thickBot="1">
+      <c r="L195" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M195" s="9"/>
+    </row>
+    <row r="197" spans="3:19" ht="18" thickBot="1"/>
+    <row r="198" spans="3:19" ht="18" thickBot="1">
+      <c r="R198" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S198" s="9"/>
+    </row>
+    <row r="199" spans="3:19" ht="18" thickBot="1">
+      <c r="D199" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199" s="9"/>
+    </row>
+    <row r="200" spans="3:19" ht="18" thickBot="1">
+      <c r="G200" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H200" s="9"/>
+      <c r="O200" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P200" s="9"/>
+      <c r="R200" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="S200" s="9"/>
+    </row>
+    <row r="201" spans="3:19" ht="18" thickBot="1"/>
+    <row r="202" spans="3:19" ht="18" thickBot="1">
+      <c r="I202" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J202" s="9"/>
+      <c r="O202" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P202" s="9"/>
+    </row>
+    <row r="203" spans="3:19" ht="18" thickBot="1">
+      <c r="L203" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M203" s="9"/>
+    </row>
+    <row r="204" spans="3:19" ht="18" thickBot="1">
+      <c r="C204" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="9"/>
+      <c r="F204" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G204" s="9"/>
+    </row>
+    <row r="208" spans="3:19" ht="18" thickBot="1"/>
+    <row r="209" spans="6:13" ht="18" thickBot="1">
+      <c r="F209" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G209" s="9"/>
+    </row>
+    <row r="210" spans="6:13" ht="18" thickBot="1">
+      <c r="L210" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M210" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="81">
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="L210:M210"/>
+    <mergeCell ref="R198:S198"/>
+    <mergeCell ref="I202:J202"/>
+    <mergeCell ref="O202:P202"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="R185:S185"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="R200:S200"/>
+    <mergeCell ref="L188:M188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="L195:M195"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="O185:P185"/>
+    <mergeCell ref="I187:J187"/>
+    <mergeCell ref="O187:P187"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F159:G159"/>
     <mergeCell ref="F180:G180"/>
     <mergeCell ref="L181:M181"/>
     <mergeCell ref="O173:P173"/>
@@ -9114,54 +14130,428 @@
     <mergeCell ref="L174:M174"/>
     <mergeCell ref="C175:D175"/>
     <mergeCell ref="F175:G175"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="L160:M160"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="L140:M140"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B10D1B8-D54B-4833-A6DD-E681E2374463}">
+  <dimension ref="D3:V81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q85" sqref="Q85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="3" spans="5:21" ht="18" thickBot="1"/>
+    <row r="4" spans="5:21" ht="18" thickBot="1">
+      <c r="T4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="5:21" ht="18" thickBot="1">
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="5:21" ht="18" thickBot="1">
+      <c r="I6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="Q6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="T6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="5:21" ht="18" thickBot="1"/>
+    <row r="8" spans="5:21" ht="18" thickBot="1">
+      <c r="K8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="Q8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="5:21" ht="18" thickBot="1">
+      <c r="N9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="5:21" ht="18" thickBot="1">
+      <c r="E10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="H10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="14" spans="5:21" ht="18" thickBot="1"/>
+    <row r="15" spans="5:21" ht="18" thickBot="1">
+      <c r="H15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="5:21" ht="18" thickBot="1">
+      <c r="N16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="18" spans="8:12" ht="18" thickBot="1"/>
+    <row r="19" spans="8:12" ht="18" thickBot="1">
+      <c r="H19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="8:12">
+      <c r="J20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" ht="18" thickBot="1">
+      <c r="J21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" ht="18" thickBot="1">
+      <c r="H22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="L22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12">
+      <c r="L23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" ht="18" thickBot="1"/>
+    <row r="28" spans="8:12" ht="18" thickBot="1">
+      <c r="H28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="K28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="8:12" ht="18" thickBot="1"/>
+    <row r="31" spans="8:12" ht="18" thickBot="1">
+      <c r="H31" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="8:12" ht="18" thickBot="1"/>
+    <row r="33" spans="4:17" ht="18" thickBot="1">
+      <c r="E33" s="5"/>
+      <c r="F33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="4:17">
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17">
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17">
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" ht="18" thickBot="1">
+      <c r="K40" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" ht="18" thickBot="1">
+      <c r="H41" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="K41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17">
+      <c r="N42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" ht="18" thickBot="1"/>
+    <row r="44" spans="4:17" ht="18" thickBot="1">
+      <c r="H44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="N44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="4:17" ht="18" thickBot="1"/>
+    <row r="46" spans="4:17" ht="18" thickBot="1">
+      <c r="F46" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="M46" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N46" s="9"/>
+      <c r="P46" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="4:17">
+      <c r="M47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="6:22" ht="18" thickBot="1"/>
+    <row r="51" spans="6:22" ht="18" thickBot="1">
+      <c r="H51" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="6:22">
+      <c r="N52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="6:22" ht="18" thickBot="1">
+      <c r="R53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="6:22" ht="18" thickBot="1">
+      <c r="H54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="N54" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O54" s="9"/>
+      <c r="R54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="6:22" ht="18" thickBot="1"/>
+    <row r="56" spans="6:22" ht="18" thickBot="1">
+      <c r="F56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="M56" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N56" s="9"/>
+      <c r="P56" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q56" s="9"/>
+    </row>
+    <row r="63" spans="6:22" ht="18" thickBot="1">
+      <c r="V63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="6:22" ht="18" thickBot="1">
+      <c r="H64" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="M64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="6:17">
+      <c r="O65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="6:17" ht="18" thickBot="1">
+      <c r="Q66" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="6:17" ht="18" thickBot="1">
+      <c r="H67" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="N67" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="6:17" ht="18" thickBot="1"/>
+    <row r="69" spans="6:17" ht="18" thickBot="1">
+      <c r="F69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="M69" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N69" s="9"/>
+      <c r="P69" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q69" s="9"/>
+    </row>
+    <row r="75" spans="6:17" ht="18" thickBot="1"/>
+    <row r="76" spans="6:17" ht="18" thickBot="1">
+      <c r="H76" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="78" spans="6:17" ht="18" thickBot="1">
+      <c r="Q78" s="7"/>
+    </row>
+    <row r="79" spans="6:17" ht="18" thickBot="1">
+      <c r="H79" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="N79" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O79" s="9"/>
+    </row>
+    <row r="80" spans="6:17" ht="18" thickBot="1"/>
+    <row r="81" spans="6:17" ht="18" thickBot="1">
+      <c r="F81" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" s="9"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="M81" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N81" s="9"/>
+      <c r="P81" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q81" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="N54:O54"/>
     <mergeCell ref="F56:G56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P56:Q56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
